--- a/server/seeds/settings.xlsx
+++ b/server/seeds/settings.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="10035"/>
+    <workbookView windowWidth="21480" windowHeight="12075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="35" r:id="rId1"/>
     <sheet name="全站SEO" sheetId="36" r:id="rId2"/>
     <sheet name="友情链接" sheetId="37" r:id="rId3"/>
+    <sheet name="游玩时间" sheetId="38" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>网站标题</t>
   </si>
@@ -119,6 +120,18 @@
   </si>
   <si>
     <t>南昌市旅游局</t>
+  </si>
+  <si>
+    <t>游玩时间</t>
+  </si>
+  <si>
+    <t>周一关闭，法定节假日除外</t>
+  </si>
+  <si>
+    <t>周二至周日，9:00-17:00</t>
+  </si>
+  <si>
+    <t>16:30游客停止入场</t>
   </si>
 </sst>
 </file>
@@ -126,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,8 +153,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,106 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,17 +245,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,132 +306,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,54 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,45 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,23 +518,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,16 +582,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,131 +615,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1195,7 +1208,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1239,7 +1252,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1291,4 +1304,41 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/server/seeds/settings.xlsx
+++ b/server/seeds/settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="12075" activeTab="3"/>
+    <workbookView windowWidth="27075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="35" r:id="rId1"/>
@@ -17,7 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>国家AAAA级景区生态森林旅游式工厂 —— 方大特钢欢迎您！</t>
+  </si>
   <si>
     <t>网站标题</t>
   </si>
@@ -139,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,46 +159,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +259,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -229,69 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,43 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,138 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +503,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,39 +541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +580,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,131 +621,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,16 +1079,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1101,21 +1107,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1127,56 +1133,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>330012</v>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>330012</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1194,6 +1200,14 @@
       </c>
       <c r="B15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1218,26 +1232,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1263,15 +1277,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1279,7 +1293,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1287,17 +1301,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1325,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1319,22 +1333,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/server/seeds/settings.xlsx
+++ b/server/seeds/settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27075" windowHeight="10035"/>
+    <workbookView windowWidth="21630" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="35" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>介绍</t>
   </si>
@@ -62,19 +62,25 @@
     <t>传真</t>
   </si>
   <si>
-    <t>0791-88392848</t>
+    <t>0791-86753021</t>
   </si>
   <si>
     <t>服务热线</t>
   </si>
   <si>
-    <t>销售热线</t>
-  </si>
-  <si>
-    <t>官方热线</t>
-  </si>
-  <si>
-    <t>在线预订</t>
+    <t>400-888-8888</t>
+  </si>
+  <si>
+    <t>售票热线</t>
+  </si>
+  <si>
+    <t>0791-83256966</t>
+  </si>
+  <si>
+    <t>合作热线</t>
+  </si>
+  <si>
+    <t>办公电话</t>
   </si>
   <si>
     <t>版权</t>
@@ -146,9 +152,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,7 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +195,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -197,31 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,61 +279,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,49 +318,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,133 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +509,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +547,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,49 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,135 +627,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,6 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1082,7 +1089,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1162,52 +1169,55 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13888888888</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1232,26 +1242,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1285,7 +1295,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1293,7 +1303,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1301,17 +1311,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1333,22 +1343,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/server/seeds/settings.xlsx
+++ b/server/seeds/settings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>介绍</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>办公电话</t>
+  </si>
+  <si>
+    <t>预订链接</t>
   </si>
   <si>
     <t>版权</t>
@@ -152,9 +155,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,7 +169,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,38 +230,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,17 +276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,45 +292,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,60 +321,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,42 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,42 +502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,21 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,24 +535,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +579,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,131 +630,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1200,24 +1203,30 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1242,26 +1251,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1295,7 +1304,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1303,7 +1312,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1311,17 +1320,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1343,22 +1352,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/server/seeds/settings.xlsx
+++ b/server/seeds/settings.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21630" windowHeight="12195"/>
+    <workbookView windowWidth="24240" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="系统设置" sheetId="35" r:id="rId1"/>
     <sheet name="全站SEO" sheetId="36" r:id="rId2"/>
     <sheet name="友情链接" sheetId="37" r:id="rId3"/>
-    <sheet name="游玩时间" sheetId="38" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>介绍</t>
   </si>
@@ -86,6 +85,9 @@
     <t>预订链接</t>
   </si>
   <si>
+    <t>http://</t>
+  </si>
+  <si>
     <t>版权</t>
   </si>
   <si>
@@ -104,6 +106,12 @@
     <t>赣公网安备:36010802000252号</t>
   </si>
   <si>
+    <t>游玩时间</t>
+  </si>
+  <si>
+    <t>周一关闭，法定节假日除外。周二至周日，9:00-17:00。16:30游客停止入场。</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
@@ -122,6 +130,12 @@
     <t>厂在林中，路在绿中，人在景中</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>国家旅游局</t>
   </si>
   <si>
@@ -135,18 +149,6 @@
   </si>
   <si>
     <t>南昌市旅游局</t>
-  </si>
-  <si>
-    <t>游玩时间</t>
-  </si>
-  <si>
-    <t>周一关闭，法定节假日除外</t>
-  </si>
-  <si>
-    <t>周二至周日，9:00-17:00</t>
-  </si>
-  <si>
-    <t>16:30游客停止入场</t>
   </si>
 </sst>
 </file>
@@ -155,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,6 +177,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,30 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,89 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,13 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,169 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +514,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,6 +575,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -554,21 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -579,49 +614,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,131 +632,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,16 +1091,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="2" max="2" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1135,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:2">
+    <row r="6" ht="28.5" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:2">
+    <row r="7" ht="28.5" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1203,30 +1205,40 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1244,33 +1256,33 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1282,92 +1294,100 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
